--- a/Suivi_projet_DWWM_Strasbourg (1) (2) (1).xlsx
+++ b/Suivi_projet_DWWM_Strasbourg (1) (2) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Développeur web et web mobile</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>exercice PDO Cinema</t>
+  </si>
+  <si>
+    <t>Bilthazar</t>
   </si>
 </sst>
 </file>
@@ -789,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1336,30 @@
         <v>11</v>
       </c>
       <c r="H25" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44988</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1534,15 +1561,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="e0126794-098a-4121-936a-035bd9667ffd">
@@ -1554,6 +1572,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,14 +1603,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F7BDE4-78B8-4CC7-9C10-44FA8104EE3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1591,4 +1610,12 @@
     <ds:schemaRef ds:uri="e0126794-098a-4121-936a-035bd9667ffd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Suivi_projet_DWWM_Strasbourg (1) (2) (1).xlsx
+++ b/Suivi_projet_DWWM_Strasbourg (1) (2) (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
   <si>
     <t>Développeur web et web mobile</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>Bilthazar</t>
+  </si>
+  <si>
+    <t>projet</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>stephane</t>
+  </si>
+  <si>
+    <t>exercice PDO Cinema,projet</t>
+  </si>
+  <si>
+    <t>https://github.com/Georgesunderscore/cinemaPDO.git</t>
   </si>
 </sst>
 </file>
@@ -792,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1375,125 @@
         <v>11</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>44992</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1561,6 +1694,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="e0126794-098a-4121-936a-035bd9667ffd">
@@ -1572,15 +1714,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1603,6 +1736,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F7BDE4-78B8-4CC7-9C10-44FA8104EE3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1610,12 +1751,4 @@
     <ds:schemaRef ds:uri="e0126794-098a-4121-936a-035bd9667ffd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>